--- a/wine_xmas2022/wine_rating.xlsx
+++ b/wine_xmas2022/wine_rating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andeabarghetti/GitHub/blind-testing/wine_xmas2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94453CAB-5CC1-B84D-9FA8-B96EB76AA90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5317088-3B18-DF44-9D95-67EE97EE63FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15580" xr2:uid="{9D9DDF2E-0350-304C-AC11-77AFF27542C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -515,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -590,9 +590,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -909,13 +906,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14368D9B-8FA2-6246-B7E3-31003E447B00}">
-  <dimension ref="A1:AV71"/>
+  <dimension ref="A1:AT71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV2" sqref="AV2"/>
+      <selection pane="bottomRight" activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,16 +949,14 @@
     <col min="36" max="36" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1077,37 +1072,31 @@
         <v>71</v>
       </c>
       <c r="AM1" s="51" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AN1" s="51" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AO1" s="51" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="AP1" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AQ1" s="51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AR1" s="51" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AS1" s="51" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="AT1" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU1" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV1" s="52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>77</v>
       </c>
@@ -1136,7 +1125,9 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="Q2" s="39">
+        <v>1</v>
+      </c>
       <c r="R2" s="39"/>
       <c r="S2" s="39"/>
       <c r="T2" s="39"/>
@@ -1145,7 +1136,9 @@
       <c r="W2" s="39"/>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
+      <c r="Z2" s="39">
+        <v>1</v>
+      </c>
       <c r="AA2" s="39"/>
       <c r="AB2" s="39"/>
       <c r="AC2" s="39"/>
@@ -1157,7 +1150,9 @@
       <c r="AI2" s="39"/>
       <c r="AJ2" s="39"/>
       <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
+      <c r="AL2" s="39">
+        <v>1</v>
+      </c>
       <c r="AM2" s="39"/>
       <c r="AN2" s="39"/>
       <c r="AO2" s="39"/>
@@ -1165,10 +1160,8 @@
       <c r="AQ2" s="39"/>
       <c r="AR2" s="39"/>
       <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="39"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>77</v>
       </c>
@@ -1198,7 +1191,9 @@
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
       <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="P3" s="39">
+        <v>1</v>
+      </c>
       <c r="Q3" s="39"/>
       <c r="R3" s="39"/>
       <c r="S3" s="39"/>
@@ -1210,7 +1205,9 @@
       <c r="Y3" s="39"/>
       <c r="Z3" s="39"/>
       <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
+      <c r="AB3" s="39">
+        <v>1</v>
+      </c>
       <c r="AC3" s="39"/>
       <c r="AD3" s="39"/>
       <c r="AE3" s="39"/>
@@ -1221,17 +1218,17 @@
       <c r="AJ3" s="39"/>
       <c r="AK3" s="39"/>
       <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
+      <c r="AM3" s="39">
+        <v>1</v>
+      </c>
       <c r="AN3" s="39"/>
       <c r="AO3" s="39"/>
       <c r="AP3" s="39"/>
       <c r="AQ3" s="39"/>
       <c r="AR3" s="39"/>
       <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>77</v>
       </c>
@@ -1261,7 +1258,9 @@
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
       <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="P4" s="39">
+        <v>1</v>
+      </c>
       <c r="Q4" s="39"/>
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
@@ -1273,7 +1272,9 @@
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
       <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
+      <c r="AB4" s="39">
+        <v>1</v>
+      </c>
       <c r="AC4" s="39"/>
       <c r="AD4" s="39"/>
       <c r="AE4" s="39"/>
@@ -1284,17 +1285,17 @@
       <c r="AJ4" s="39"/>
       <c r="AK4" s="39"/>
       <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
+      <c r="AM4" s="39">
+        <v>1</v>
+      </c>
       <c r="AN4" s="39"/>
       <c r="AO4" s="39"/>
       <c r="AP4" s="39"/>
       <c r="AQ4" s="39"/>
       <c r="AR4" s="39"/>
       <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -1325,7 +1326,9 @@
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="S5" s="39">
+        <v>1</v>
+      </c>
       <c r="T5" s="39"/>
       <c r="U5" s="39"/>
       <c r="V5" s="39"/>
@@ -1333,7 +1336,9 @@
       <c r="X5" s="39"/>
       <c r="Y5" s="39"/>
       <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
+      <c r="AA5" s="39">
+        <v>1</v>
+      </c>
       <c r="AB5" s="39"/>
       <c r="AC5" s="39"/>
       <c r="AD5" s="39"/>
@@ -1343,7 +1348,9 @@
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
       <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
+      <c r="AK5" s="39">
+        <v>1</v>
+      </c>
       <c r="AL5" s="39"/>
       <c r="AM5" s="39"/>
       <c r="AN5" s="39"/>
@@ -1352,10 +1359,8 @@
       <c r="AQ5" s="39"/>
       <c r="AR5" s="39"/>
       <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>77</v>
       </c>
@@ -1385,7 +1390,9 @@
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
+      <c r="P6" s="39">
+        <v>1</v>
+      </c>
       <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
@@ -1402,7 +1409,9 @@
       <c r="AD6" s="39"/>
       <c r="AE6" s="39"/>
       <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
+      <c r="AG6" s="39">
+        <v>1</v>
+      </c>
       <c r="AH6" s="39"/>
       <c r="AI6" s="39"/>
       <c r="AJ6" s="39"/>
@@ -1415,10 +1424,8 @@
       <c r="AQ6" s="39"/>
       <c r="AR6" s="39"/>
       <c r="AS6" s="39"/>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="39"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>77</v>
       </c>
@@ -1442,7 +1449,9 @@
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+      <c r="L7" s="39">
+        <v>1</v>
+      </c>
       <c r="M7" s="39"/>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
@@ -1459,7 +1468,9 @@
       <c r="Z7" s="39"/>
       <c r="AA7" s="39"/>
       <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
+      <c r="AC7" s="39">
+        <v>1</v>
+      </c>
       <c r="AD7" s="39"/>
       <c r="AE7" s="39"/>
       <c r="AF7" s="39"/>
@@ -1467,7 +1478,9 @@
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
       <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
+      <c r="AK7" s="39">
+        <v>1</v>
+      </c>
       <c r="AL7" s="39"/>
       <c r="AM7" s="39"/>
       <c r="AN7" s="39"/>
@@ -1476,10 +1489,8 @@
       <c r="AQ7" s="39"/>
       <c r="AR7" s="39"/>
       <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
@@ -1509,7 +1520,9 @@
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
+      <c r="P8" s="39">
+        <v>1</v>
+      </c>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
@@ -1526,7 +1539,9 @@
       <c r="AD8" s="39"/>
       <c r="AE8" s="39"/>
       <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
+      <c r="AG8" s="39">
+        <v>1</v>
+      </c>
       <c r="AH8" s="39"/>
       <c r="AI8" s="39"/>
       <c r="AJ8" s="39"/>
@@ -1539,10 +1554,8 @@
       <c r="AQ8" s="39"/>
       <c r="AR8" s="39"/>
       <c r="AS8" s="39"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="39"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -1602,10 +1615,8 @@
       <c r="AQ9" s="40"/>
       <c r="AR9" s="40"/>
       <c r="AS9" s="40"/>
-      <c r="AT9" s="40"/>
-      <c r="AU9" s="40"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +1639,9 @@
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="K10" s="40">
+        <v>1</v>
+      </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
@@ -1637,11 +1650,15 @@
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
       <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
+      <c r="T10" s="40">
+        <v>1</v>
+      </c>
       <c r="U10" s="40"/>
       <c r="V10" s="40"/>
       <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
+      <c r="X10" s="40">
+        <v>1</v>
+      </c>
       <c r="Y10" s="40"/>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40"/>
@@ -1651,7 +1668,9 @@
       <c r="AE10" s="40"/>
       <c r="AF10" s="40"/>
       <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
+      <c r="AH10" s="40">
+        <v>1</v>
+      </c>
       <c r="AI10" s="40"/>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
@@ -1663,10 +1682,8 @@
       <c r="AQ10" s="40"/>
       <c r="AR10" s="40"/>
       <c r="AS10" s="40"/>
-      <c r="AT10" s="40"/>
-      <c r="AU10" s="40"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1695,8 +1712,12 @@
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
+      <c r="Q11" s="40">
+        <v>1</v>
+      </c>
+      <c r="R11" s="40">
+        <v>1</v>
+      </c>
       <c r="S11" s="40"/>
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
@@ -1704,14 +1725,20 @@
       <c r="W11" s="40"/>
       <c r="X11" s="40"/>
       <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
+      <c r="Z11" s="40">
+        <v>1</v>
+      </c>
       <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
+      <c r="AB11" s="40">
+        <v>1</v>
+      </c>
       <c r="AC11" s="40"/>
       <c r="AD11" s="40"/>
       <c r="AE11" s="40"/>
       <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
+      <c r="AG11" s="40">
+        <v>1</v>
+      </c>
       <c r="AH11" s="40"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="40"/>
@@ -1724,10 +1751,8 @@
       <c r="AQ11" s="40"/>
       <c r="AR11" s="40"/>
       <c r="AS11" s="40"/>
-      <c r="AT11" s="40"/>
-      <c r="AU11" s="40"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
@@ -1760,23 +1785,33 @@
       <c r="P12" s="40"/>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
+      <c r="S12" s="40">
+        <v>1</v>
+      </c>
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
+      <c r="W12" s="40">
+        <v>1</v>
+      </c>
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
+      <c r="AB12" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="40">
+        <v>1</v>
+      </c>
       <c r="AD12" s="40"/>
       <c r="AE12" s="40"/>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40"/>
       <c r="AH12" s="40"/>
-      <c r="AI12" s="40"/>
+      <c r="AI12" s="40">
+        <v>1</v>
+      </c>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
@@ -1787,10 +1822,8 @@
       <c r="AQ12" s="40"/>
       <c r="AR12" s="40"/>
       <c r="AS12" s="40"/>
-      <c r="AT12" s="40"/>
-      <c r="AU12" s="40"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1856,9 @@
       <c r="P13" s="40"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
+      <c r="S13" s="40">
+        <v>1</v>
+      </c>
       <c r="T13" s="40"/>
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
@@ -1832,8 +1867,12 @@
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
+      <c r="AB13" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="40">
+        <v>1</v>
+      </c>
       <c r="AD13" s="40"/>
       <c r="AE13" s="40"/>
       <c r="AF13" s="40"/>
@@ -1850,10 +1889,8 @@
       <c r="AQ13" s="40"/>
       <c r="AR13" s="40"/>
       <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="40"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
@@ -1882,39 +1919,55 @@
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
+      <c r="Q14" s="40">
+        <v>1</v>
+      </c>
+      <c r="R14" s="40">
+        <v>1</v>
+      </c>
       <c r="S14" s="40"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
+      <c r="W14" s="40">
+        <v>1</v>
+      </c>
       <c r="X14" s="40"/>
       <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
+      <c r="Z14" s="40">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="40">
+        <v>1</v>
+      </c>
       <c r="AC14" s="40"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="40"/>
       <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
+      <c r="AG14" s="40">
+        <v>1</v>
+      </c>
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
+      <c r="AK14" s="40">
+        <v>1</v>
+      </c>
       <c r="AL14" s="40"/>
       <c r="AM14" s="40"/>
       <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
+      <c r="AO14" s="40">
+        <v>1</v>
+      </c>
       <c r="AP14" s="40"/>
       <c r="AQ14" s="40"/>
       <c r="AR14" s="40"/>
       <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="40"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -1974,10 +2027,8 @@
       <c r="AQ15" s="40"/>
       <c r="AR15" s="40"/>
       <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="40"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>28</v>
       </c>
@@ -2035,10 +2086,8 @@
       <c r="AQ16" s="41"/>
       <c r="AR16" s="41"/>
       <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>28</v>
       </c>
@@ -2064,7 +2113,9 @@
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
+      <c r="P17" s="41">
+        <v>1</v>
+      </c>
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
@@ -2074,7 +2125,9 @@
       <c r="W17" s="41"/>
       <c r="X17" s="41"/>
       <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
+      <c r="Z17" s="41">
+        <v>1</v>
+      </c>
       <c r="AA17" s="41"/>
       <c r="AB17" s="41"/>
       <c r="AC17" s="41"/>
@@ -2094,10 +2147,8 @@
       <c r="AQ17" s="41"/>
       <c r="AR17" s="41"/>
       <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>28</v>
       </c>
@@ -2155,10 +2206,8 @@
       <c r="AQ18" s="41"/>
       <c r="AR18" s="41"/>
       <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>28</v>
       </c>
@@ -2180,12 +2229,16 @@
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="J19" s="41">
+        <v>1</v>
+      </c>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
+      <c r="O19" s="41">
+        <v>1</v>
+      </c>
       <c r="P19" s="41"/>
       <c r="Q19" s="41"/>
       <c r="R19" s="41"/>
@@ -2216,10 +2269,8 @@
       <c r="AQ19" s="41"/>
       <c r="AR19" s="41"/>
       <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
@@ -2273,10 +2324,8 @@
       <c r="AQ20" s="41"/>
       <c r="AR20" s="41"/>
       <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
@@ -2302,7 +2351,9 @@
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
+      <c r="N21" s="41">
+        <v>1</v>
+      </c>
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -2334,10 +2385,8 @@
       <c r="AQ21" s="41"/>
       <c r="AR21" s="41"/>
       <c r="AS21" s="41"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
@@ -2393,10 +2442,8 @@
       <c r="AQ22" s="41"/>
       <c r="AR22" s="41"/>
       <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="41"/>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
@@ -2454,10 +2501,8 @@
       <c r="AQ23" s="42"/>
       <c r="AR23" s="42"/>
       <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>31</v>
       </c>
@@ -2515,10 +2560,8 @@
       <c r="AQ24" s="42"/>
       <c r="AR24" s="42"/>
       <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>31</v>
       </c>
@@ -2576,10 +2619,8 @@
       <c r="AQ25" s="42"/>
       <c r="AR25" s="42"/>
       <c r="AS25" s="42"/>
-      <c r="AT25" s="42"/>
-      <c r="AU25" s="42"/>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>31</v>
       </c>
@@ -2635,10 +2676,8 @@
       <c r="AQ26" s="42"/>
       <c r="AR26" s="42"/>
       <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="42"/>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>31</v>
       </c>
@@ -2696,10 +2735,8 @@
       <c r="AQ27" s="42"/>
       <c r="AR27" s="42"/>
       <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
-      <c r="AU27" s="42"/>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
@@ -2757,10 +2794,8 @@
       <c r="AQ28" s="42"/>
       <c r="AR28" s="42"/>
       <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
@@ -2818,10 +2853,8 @@
       <c r="AQ29" s="42"/>
       <c r="AR29" s="42"/>
       <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="42"/>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>30</v>
       </c>
@@ -2879,10 +2912,8 @@
       <c r="AQ30" s="43"/>
       <c r="AR30" s="43"/>
       <c r="AS30" s="43"/>
-      <c r="AT30" s="43"/>
-      <c r="AU30" s="43"/>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>30</v>
       </c>
@@ -2942,10 +2973,8 @@
       <c r="AQ31" s="43"/>
       <c r="AR31" s="43"/>
       <c r="AS31" s="43"/>
-      <c r="AT31" s="43"/>
-      <c r="AU31" s="43"/>
-    </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
@@ -3005,10 +3034,8 @@
       <c r="AQ32" s="43"/>
       <c r="AR32" s="43"/>
       <c r="AS32" s="43"/>
-      <c r="AT32" s="43"/>
-      <c r="AU32" s="43"/>
-    </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>30</v>
       </c>
@@ -3034,7 +3061,9 @@
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
       <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
+      <c r="P33" s="43">
+        <v>1</v>
+      </c>
       <c r="Q33" s="43"/>
       <c r="R33" s="43"/>
       <c r="S33" s="43"/>
@@ -3064,10 +3093,8 @@
       <c r="AQ33" s="43"/>
       <c r="AR33" s="43"/>
       <c r="AS33" s="43"/>
-      <c r="AT33" s="43"/>
-      <c r="AU33" s="43"/>
-    </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>30</v>
       </c>
@@ -3123,10 +3150,8 @@
       <c r="AQ34" s="43"/>
       <c r="AR34" s="43"/>
       <c r="AS34" s="43"/>
-      <c r="AT34" s="43"/>
-      <c r="AU34" s="43"/>
-    </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>30</v>
       </c>
@@ -3159,7 +3184,9 @@
       <c r="R35" s="43"/>
       <c r="S35" s="43"/>
       <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
+      <c r="U35" s="43">
+        <v>1</v>
+      </c>
       <c r="V35" s="43"/>
       <c r="W35" s="43"/>
       <c r="X35" s="43"/>
@@ -3184,10 +3211,8 @@
       <c r="AQ35" s="43"/>
       <c r="AR35" s="43"/>
       <c r="AS35" s="43"/>
-      <c r="AT35" s="43"/>
-      <c r="AU35" s="43"/>
-    </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>30</v>
       </c>
@@ -3220,7 +3245,9 @@
       <c r="R36" s="43"/>
       <c r="S36" s="43"/>
       <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
+      <c r="U36" s="43">
+        <v>1</v>
+      </c>
       <c r="V36" s="43"/>
       <c r="W36" s="43"/>
       <c r="X36" s="43"/>
@@ -3245,10 +3272,8 @@
       <c r="AQ36" s="43"/>
       <c r="AR36" s="43"/>
       <c r="AS36" s="43"/>
-      <c r="AT36" s="43"/>
-      <c r="AU36" s="43"/>
-    </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>27</v>
       </c>
@@ -3272,13 +3297,19 @@
         <v>13</v>
       </c>
       <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
+      <c r="J37" s="44">
+        <v>1</v>
+      </c>
       <c r="K37" s="44"/>
       <c r="L37" s="44"/>
       <c r="M37" s="44"/>
       <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
+      <c r="O37" s="44">
+        <v>1</v>
+      </c>
+      <c r="P37" s="44">
+        <v>1</v>
+      </c>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
@@ -3296,22 +3327,26 @@
       <c r="AE37" s="44"/>
       <c r="AF37" s="44"/>
       <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
+      <c r="AH37" s="44">
+        <v>1</v>
+      </c>
       <c r="AI37" s="44"/>
       <c r="AJ37" s="44"/>
       <c r="AK37" s="44"/>
       <c r="AL37" s="44"/>
-      <c r="AM37" s="44"/>
+      <c r="AM37" s="44">
+        <v>1</v>
+      </c>
       <c r="AN37" s="44"/>
-      <c r="AO37" s="44"/>
+      <c r="AO37" s="44">
+        <v>1</v>
+      </c>
       <c r="AP37" s="44"/>
       <c r="AQ37" s="44"/>
       <c r="AR37" s="44"/>
       <c r="AS37" s="44"/>
-      <c r="AT37" s="44"/>
-      <c r="AU37" s="44"/>
-    </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>27</v>
       </c>
@@ -3349,17 +3384,23 @@
       <c r="U38" s="44"/>
       <c r="V38" s="44"/>
       <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
+      <c r="X38" s="44">
+        <v>1</v>
+      </c>
       <c r="Y38" s="44"/>
       <c r="Z38" s="44"/>
       <c r="AA38" s="44"/>
       <c r="AB38" s="44"/>
       <c r="AC38" s="44"/>
       <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
+      <c r="AE38" s="44">
+        <v>1</v>
+      </c>
       <c r="AF38" s="44"/>
       <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
+      <c r="AH38" s="44">
+        <v>1</v>
+      </c>
       <c r="AI38" s="44"/>
       <c r="AJ38" s="44"/>
       <c r="AK38" s="44"/>
@@ -3371,10 +3412,8 @@
       <c r="AQ38" s="44"/>
       <c r="AR38" s="44"/>
       <c r="AS38" s="44"/>
-      <c r="AT38" s="44"/>
-      <c r="AU38" s="44"/>
-    </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>27</v>
       </c>
@@ -3399,8 +3438,12 @@
       <c r="J39" s="44"/>
       <c r="K39" s="44"/>
       <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
+      <c r="M39" s="44">
+        <v>1</v>
+      </c>
+      <c r="N39" s="44">
+        <v>1</v>
+      </c>
       <c r="O39" s="44"/>
       <c r="P39" s="44"/>
       <c r="Q39" s="44"/>
@@ -3420,7 +3463,9 @@
       <c r="AE39" s="44"/>
       <c r="AF39" s="44"/>
       <c r="AG39" s="44"/>
-      <c r="AH39" s="44"/>
+      <c r="AH39" s="44">
+        <v>1</v>
+      </c>
       <c r="AI39" s="44"/>
       <c r="AJ39" s="44"/>
       <c r="AK39" s="44"/>
@@ -3432,10 +3477,8 @@
       <c r="AQ39" s="44"/>
       <c r="AR39" s="44"/>
       <c r="AS39" s="44"/>
-      <c r="AT39" s="44"/>
-      <c r="AU39" s="44"/>
-    </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
         <v>27</v>
       </c>
@@ -3467,7 +3510,9 @@
       <c r="O40" s="44"/>
       <c r="P40" s="44"/>
       <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
+      <c r="R40" s="44">
+        <v>1</v>
+      </c>
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
       <c r="U40" s="44"/>
@@ -3475,10 +3520,16 @@
       <c r="W40" s="44"/>
       <c r="X40" s="44"/>
       <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
+      <c r="Z40" s="44">
+        <v>1</v>
+      </c>
       <c r="AA40" s="44"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
+      <c r="AB40" s="44">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="44">
+        <v>1</v>
+      </c>
       <c r="AD40" s="44"/>
       <c r="AE40" s="44"/>
       <c r="AF40" s="44"/>
@@ -3486,19 +3537,21 @@
       <c r="AH40" s="44"/>
       <c r="AI40" s="44"/>
       <c r="AJ40" s="44"/>
-      <c r="AK40" s="44"/>
+      <c r="AK40" s="44">
+        <v>1</v>
+      </c>
       <c r="AL40" s="44"/>
-      <c r="AM40" s="44"/>
+      <c r="AM40" s="44">
+        <v>1</v>
+      </c>
       <c r="AN40" s="44"/>
       <c r="AO40" s="44"/>
       <c r="AP40" s="44"/>
       <c r="AQ40" s="44"/>
       <c r="AR40" s="44"/>
       <c r="AS40" s="44"/>
-      <c r="AT40" s="44"/>
-      <c r="AU40" s="44"/>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>27</v>
       </c>
@@ -3556,10 +3609,8 @@
       <c r="AQ41" s="44"/>
       <c r="AR41" s="44"/>
       <c r="AS41" s="44"/>
-      <c r="AT41" s="44"/>
-      <c r="AU41" s="44"/>
-    </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>27</v>
       </c>
@@ -3617,10 +3668,8 @@
       <c r="AQ42" s="44"/>
       <c r="AR42" s="44"/>
       <c r="AS42" s="44"/>
-      <c r="AT42" s="44"/>
-      <c r="AU42" s="44"/>
-    </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>27</v>
       </c>
@@ -3680,10 +3729,8 @@
       <c r="AQ43" s="44"/>
       <c r="AR43" s="44"/>
       <c r="AS43" s="44"/>
-      <c r="AT43" s="44"/>
-      <c r="AU43" s="44"/>
-    </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
         <v>29</v>
       </c>
@@ -3705,7 +3752,9 @@
         <v>12</v>
       </c>
       <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
+      <c r="J44" s="45">
+        <v>1</v>
+      </c>
       <c r="K44" s="45"/>
       <c r="L44" s="45"/>
       <c r="M44" s="45"/>
@@ -3715,7 +3764,9 @@
       <c r="Q44" s="45"/>
       <c r="R44" s="45"/>
       <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
+      <c r="T44" s="45">
+        <v>1</v>
+      </c>
       <c r="U44" s="45"/>
       <c r="V44" s="45"/>
       <c r="W44" s="45"/>
@@ -3741,10 +3792,8 @@
       <c r="AQ44" s="45"/>
       <c r="AR44" s="45"/>
       <c r="AS44" s="45"/>
-      <c r="AT44" s="45"/>
-      <c r="AU44" s="45"/>
-    </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>29</v>
       </c>
@@ -3804,10 +3853,8 @@
       <c r="AQ45" s="45"/>
       <c r="AR45" s="45"/>
       <c r="AS45" s="45"/>
-      <c r="AT45" s="45"/>
-      <c r="AU45" s="45"/>
-    </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>29</v>
       </c>
@@ -3848,7 +3895,9 @@
       <c r="Z46" s="45"/>
       <c r="AA46" s="45"/>
       <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
+      <c r="AC46" s="45">
+        <v>1</v>
+      </c>
       <c r="AD46" s="45"/>
       <c r="AE46" s="45"/>
       <c r="AF46" s="45"/>
@@ -3859,16 +3908,16 @@
       <c r="AK46" s="45"/>
       <c r="AL46" s="45"/>
       <c r="AM46" s="45"/>
-      <c r="AN46" s="45"/>
+      <c r="AN46" s="45">
+        <v>1</v>
+      </c>
       <c r="AO46" s="45"/>
       <c r="AP46" s="45"/>
       <c r="AQ46" s="45"/>
       <c r="AR46" s="45"/>
       <c r="AS46" s="45"/>
-      <c r="AT46" s="45"/>
-      <c r="AU46" s="45"/>
-    </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>29</v>
       </c>
@@ -3900,7 +3949,9 @@
       <c r="O47" s="45"/>
       <c r="P47" s="45"/>
       <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
+      <c r="R47" s="45">
+        <v>1</v>
+      </c>
       <c r="S47" s="45"/>
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
@@ -3913,7 +3964,9 @@
       <c r="AB47" s="45"/>
       <c r="AC47" s="45"/>
       <c r="AD47" s="45"/>
-      <c r="AE47" s="45"/>
+      <c r="AE47" s="45">
+        <v>1</v>
+      </c>
       <c r="AF47" s="45"/>
       <c r="AG47" s="45"/>
       <c r="AH47" s="45"/>
@@ -3928,10 +3981,8 @@
       <c r="AQ47" s="45"/>
       <c r="AR47" s="45"/>
       <c r="AS47" s="45"/>
-      <c r="AT47" s="45"/>
-      <c r="AU47" s="45"/>
-    </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>29</v>
       </c>
@@ -3991,10 +4042,8 @@
       <c r="AQ48" s="45"/>
       <c r="AR48" s="45"/>
       <c r="AS48" s="45"/>
-      <c r="AT48" s="45"/>
-      <c r="AU48" s="45"/>
-    </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>29</v>
       </c>
@@ -4054,10 +4103,8 @@
       <c r="AQ49" s="45"/>
       <c r="AR49" s="45"/>
       <c r="AS49" s="45"/>
-      <c r="AT49" s="45"/>
-      <c r="AU49" s="45"/>
-    </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>29</v>
       </c>
@@ -4115,10 +4162,8 @@
       <c r="AQ50" s="45"/>
       <c r="AR50" s="45"/>
       <c r="AS50" s="45"/>
-      <c r="AT50" s="45"/>
-      <c r="AU50" s="45"/>
-    </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +4189,9 @@
       <c r="K51" s="46"/>
       <c r="L51" s="46"/>
       <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
+      <c r="N51" s="46">
+        <v>1</v>
+      </c>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
       <c r="Q51" s="46"/>
@@ -4156,7 +4203,9 @@
       <c r="W51" s="46"/>
       <c r="X51" s="46"/>
       <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
+      <c r="Z51" s="46">
+        <v>1</v>
+      </c>
       <c r="AA51" s="46"/>
       <c r="AB51" s="46"/>
       <c r="AC51" s="46"/>
@@ -4176,10 +4225,8 @@
       <c r="AQ51" s="46"/>
       <c r="AR51" s="46"/>
       <c r="AS51" s="46"/>
-      <c r="AT51" s="46"/>
-      <c r="AU51" s="46"/>
-    </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
         <v>32</v>
       </c>
@@ -4202,7 +4249,9 @@
       <c r="H52" s="30">
         <v>13.5</v>
       </c>
-      <c r="I52" s="46"/>
+      <c r="I52" s="46">
+        <v>1</v>
+      </c>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
       <c r="L52" s="46"/>
@@ -4239,10 +4288,8 @@
       <c r="AQ52" s="46"/>
       <c r="AR52" s="46"/>
       <c r="AS52" s="46"/>
-      <c r="AT52" s="46"/>
-      <c r="AU52" s="46"/>
-    </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
         <v>32</v>
       </c>
@@ -4271,8 +4318,12 @@
       <c r="N53" s="46"/>
       <c r="O53" s="46"/>
       <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
+      <c r="Q53" s="46">
+        <v>1</v>
+      </c>
+      <c r="R53" s="46">
+        <v>1</v>
+      </c>
       <c r="S53" s="46"/>
       <c r="T53" s="46"/>
       <c r="U53" s="46"/>
@@ -4282,7 +4333,9 @@
       <c r="Y53" s="46"/>
       <c r="Z53" s="46"/>
       <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
+      <c r="AB53" s="46">
+        <v>1</v>
+      </c>
       <c r="AC53" s="46"/>
       <c r="AD53" s="46"/>
       <c r="AE53" s="46"/>
@@ -4300,10 +4353,8 @@
       <c r="AQ53" s="46"/>
       <c r="AR53" s="46"/>
       <c r="AS53" s="46"/>
-      <c r="AT53" s="46"/>
-      <c r="AU53" s="46"/>
-    </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>32</v>
       </c>
@@ -4363,10 +4414,8 @@
       <c r="AQ54" s="46"/>
       <c r="AR54" s="46"/>
       <c r="AS54" s="46"/>
-      <c r="AT54" s="46"/>
-      <c r="AU54" s="46"/>
-    </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
         <v>32</v>
       </c>
@@ -4426,10 +4475,8 @@
       <c r="AQ55" s="46"/>
       <c r="AR55" s="46"/>
       <c r="AS55" s="46"/>
-      <c r="AT55" s="46"/>
-      <c r="AU55" s="46"/>
-    </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
         <v>32</v>
       </c>
@@ -4461,7 +4508,9 @@
       <c r="O56" s="46"/>
       <c r="P56" s="46"/>
       <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
+      <c r="R56" s="46">
+        <v>1</v>
+      </c>
       <c r="S56" s="46"/>
       <c r="T56" s="46"/>
       <c r="U56" s="46"/>
@@ -4471,7 +4520,9 @@
       <c r="Y56" s="46"/>
       <c r="Z56" s="46"/>
       <c r="AA56" s="46"/>
-      <c r="AB56" s="46"/>
+      <c r="AB56" s="46">
+        <v>1</v>
+      </c>
       <c r="AC56" s="46"/>
       <c r="AD56" s="46"/>
       <c r="AE56" s="46"/>
@@ -4479,7 +4530,9 @@
       <c r="AG56" s="46"/>
       <c r="AH56" s="46"/>
       <c r="AI56" s="46"/>
-      <c r="AJ56" s="46"/>
+      <c r="AJ56" s="46">
+        <v>1</v>
+      </c>
       <c r="AK56" s="46"/>
       <c r="AL56" s="46"/>
       <c r="AM56" s="46"/>
@@ -4489,10 +4542,8 @@
       <c r="AQ56" s="46"/>
       <c r="AR56" s="46"/>
       <c r="AS56" s="46"/>
-      <c r="AT56" s="46"/>
-      <c r="AU56" s="46"/>
-    </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
         <v>32</v>
       </c>
@@ -4550,10 +4601,8 @@
       <c r="AQ57" s="46"/>
       <c r="AR57" s="46"/>
       <c r="AS57" s="46"/>
-      <c r="AT57" s="46"/>
-      <c r="AU57" s="46"/>
-    </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58" s="35" t="s">
         <v>78</v>
       </c>
@@ -4580,7 +4629,9 @@
       <c r="L58" s="47"/>
       <c r="M58" s="47"/>
       <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
+      <c r="O58" s="47">
+        <v>1</v>
+      </c>
       <c r="P58" s="47"/>
       <c r="Q58" s="47"/>
       <c r="R58" s="47"/>
@@ -4611,10 +4662,8 @@
       <c r="AQ58" s="47"/>
       <c r="AR58" s="47"/>
       <c r="AS58" s="47"/>
-      <c r="AT58" s="47"/>
-      <c r="AU58" s="47"/>
-    </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
         <v>78</v>
       </c>
@@ -4636,7 +4685,9 @@
         <v>13</v>
       </c>
       <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
+      <c r="J59" s="47">
+        <v>1</v>
+      </c>
       <c r="K59" s="47"/>
       <c r="L59" s="47"/>
       <c r="M59" s="47"/>
@@ -4653,7 +4704,9 @@
       <c r="X59" s="47"/>
       <c r="Y59" s="47"/>
       <c r="Z59" s="47"/>
-      <c r="AA59" s="47"/>
+      <c r="AA59" s="47">
+        <v>1</v>
+      </c>
       <c r="AB59" s="47"/>
       <c r="AC59" s="47"/>
       <c r="AD59" s="47"/>
@@ -4672,10 +4725,8 @@
       <c r="AQ59" s="47"/>
       <c r="AR59" s="47"/>
       <c r="AS59" s="47"/>
-      <c r="AT59" s="47"/>
-      <c r="AU59" s="47"/>
-    </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A60" s="35" t="s">
         <v>78</v>
       </c>
@@ -4732,13 +4783,13 @@
       <c r="AN60" s="47"/>
       <c r="AO60" s="47"/>
       <c r="AP60" s="47"/>
-      <c r="AQ60" s="47"/>
+      <c r="AQ60" s="47">
+        <v>1</v>
+      </c>
       <c r="AR60" s="47"/>
       <c r="AS60" s="47"/>
-      <c r="AT60" s="47"/>
-      <c r="AU60" s="47"/>
-    </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A61" s="35" t="s">
         <v>78</v>
       </c>
@@ -4768,7 +4819,9 @@
       <c r="O61" s="47"/>
       <c r="P61" s="47"/>
       <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
+      <c r="R61" s="47">
+        <v>1</v>
+      </c>
       <c r="S61" s="47"/>
       <c r="T61" s="47"/>
       <c r="U61" s="47"/>
@@ -4777,7 +4830,9 @@
       <c r="X61" s="47"/>
       <c r="Y61" s="47"/>
       <c r="Z61" s="47"/>
-      <c r="AA61" s="47"/>
+      <c r="AA61" s="47">
+        <v>1</v>
+      </c>
       <c r="AB61" s="47"/>
       <c r="AC61" s="47"/>
       <c r="AD61" s="47"/>
@@ -4796,10 +4851,8 @@
       <c r="AQ61" s="47"/>
       <c r="AR61" s="47"/>
       <c r="AS61" s="47"/>
-      <c r="AT61" s="47"/>
-      <c r="AU61" s="47"/>
-    </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A62" s="35" t="s">
         <v>78</v>
       </c>
@@ -4828,7 +4881,9 @@
       <c r="L62" s="47"/>
       <c r="M62" s="47"/>
       <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
+      <c r="O62" s="47">
+        <v>1</v>
+      </c>
       <c r="P62" s="47"/>
       <c r="Q62" s="47"/>
       <c r="R62" s="47"/>
@@ -4859,10 +4914,8 @@
       <c r="AQ62" s="47"/>
       <c r="AR62" s="47"/>
       <c r="AS62" s="47"/>
-      <c r="AT62" s="47"/>
-      <c r="AU62" s="47"/>
-    </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A63" s="35" t="s">
         <v>78</v>
       </c>
@@ -4920,10 +4973,8 @@
       <c r="AQ63" s="47"/>
       <c r="AR63" s="47"/>
       <c r="AS63" s="47"/>
-      <c r="AT63" s="47"/>
-      <c r="AU63" s="47"/>
-    </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A64" s="35" t="s">
         <v>78</v>
       </c>
@@ -4981,10 +5032,8 @@
       <c r="AQ64" s="47"/>
       <c r="AR64" s="47"/>
       <c r="AS64" s="47"/>
-      <c r="AT64" s="47"/>
-      <c r="AU64" s="47"/>
-    </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
         <v>79</v>
       </c>
@@ -5044,10 +5093,8 @@
       <c r="AQ65" s="48"/>
       <c r="AR65" s="48"/>
       <c r="AS65" s="48"/>
-      <c r="AT65" s="48"/>
-      <c r="AU65" s="48"/>
-    </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
         <v>79</v>
       </c>
@@ -5105,10 +5152,8 @@
       <c r="AQ66" s="48"/>
       <c r="AR66" s="48"/>
       <c r="AS66" s="48"/>
-      <c r="AT66" s="48"/>
-      <c r="AU66" s="48"/>
-    </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A67" s="32" t="s">
         <v>79</v>
       </c>
@@ -5168,10 +5213,8 @@
       <c r="AQ67" s="48"/>
       <c r="AR67" s="48"/>
       <c r="AS67" s="48"/>
-      <c r="AT67" s="48"/>
-      <c r="AU67" s="48"/>
-    </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A68" s="32" t="s">
         <v>79</v>
       </c>
@@ -5229,10 +5272,8 @@
       <c r="AQ68" s="48"/>
       <c r="AR68" s="48"/>
       <c r="AS68" s="48"/>
-      <c r="AT68" s="48"/>
-      <c r="AU68" s="48"/>
-    </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
         <v>79</v>
       </c>
@@ -5290,10 +5331,8 @@
       <c r="AQ69" s="48"/>
       <c r="AR69" s="48"/>
       <c r="AS69" s="48"/>
-      <c r="AT69" s="48"/>
-      <c r="AU69" s="48"/>
-    </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A70" s="32" t="s">
         <v>79</v>
       </c>
@@ -5353,10 +5392,8 @@
       <c r="AQ70" s="48"/>
       <c r="AR70" s="48"/>
       <c r="AS70" s="48"/>
-      <c r="AT70" s="48"/>
-      <c r="AU70" s="48"/>
-    </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A71" s="32" t="s">
         <v>79</v>
       </c>
@@ -5416,8 +5453,6 @@
       <c r="AQ71" s="48"/>
       <c r="AR71" s="48"/>
       <c r="AS71" s="48"/>
-      <c r="AT71" s="48"/>
-      <c r="AU71" s="48"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB71">
